--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T20:06:08+00:00</t>
+    <t>2022-01-10T15:11:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T15:11:55+00:00</t>
+    <t>2022-01-25T14:39:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T14:39:04+00:00</t>
+    <t>2022-01-31T16:29:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-31T16:29:45+00:00</t>
+    <t>2022-01-31T20:10:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-31T20:10:04+00:00</t>
+    <t>2022-02-11T00:28:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-11T00:28:19+00:00</t>
+    <t>2022-02-11T01:45:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-11T01:45:45+00:00</t>
+    <t>2022-02-13T22:11:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-13T22:11:31+00:00</t>
+    <t>2022-03-01T19:29:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-01T19:29:42+00:00</t>
+    <t>2022-03-04T23:14:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T23:14:40+00:00</t>
+    <t>2022-03-05T00:52:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T00:52:55+00:00</t>
+    <t>2022-03-05T01:03:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T01:03:34+00:00</t>
+    <t>2022-03-05T01:09:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T01:09:46+00:00</t>
+    <t>2022-03-18T16:50:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T16:50:55+00:00</t>
+    <t>2022-03-19T18:10:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-19T18:10:29+00:00</t>
+    <t>2022-03-19T18:27:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-19T18:27:00+00:00</t>
+    <t>2022-03-20T18:26:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-20T18:26:18+00:00</t>
+    <t>2022-03-20T19:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-20T19:00:26+00:00</t>
+    <t>2022-03-21T17:45:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T17:45:13+00:00</t>
+    <t>2022-03-21T18:09:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T18:09:33+00:00</t>
+    <t>2022-03-22T20:54:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-22T20:54:15+00:00</t>
+    <t>2022-03-23T00:01:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:01:05+00:00</t>
+    <t>2022-03-23T00:19:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:19:03+00:00</t>
+    <t>2022-03-23T00:33:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:33:43+00:00</t>
+    <t>2022-03-23T18:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T18:40:06+00:00</t>
+    <t>2022-03-23T19:11:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T19:11:09+00:00</t>
+    <t>2022-03-23T19:27:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T19:27:55+00:00</t>
+    <t>2022-03-23T20:20:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T20:20:45+00:00</t>
+    <t>2022-03-23T20:39:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T20:39:07+00:00</t>
+    <t>2022-03-23T21:03:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T21:03:35+00:00</t>
+    <t>2022-03-24T19:03:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T19:03:35+00:00</t>
+    <t>2022-03-24T19:25:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T19:25:05+00:00</t>
+    <t>2022-03-24T20:10:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T20:10:48+00:00</t>
+    <t>2022-03-24T20:26:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T20:26:37+00:00</t>
+    <t>2022-03-26T21:07:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:07:52+00:00</t>
+    <t>2022-03-26T21:44:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:44:34+00:00</t>
+    <t>2022-03-26T21:58:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:58:42+00:00</t>
+    <t>2022-03-26T22:00:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T22:00:49+00:00</t>
+    <t>2022-03-28T14:06:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T14:06:51+00:00</t>
+    <t>2022-03-28T17:18:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T17:18:58+00:00</t>
+    <t>2022-03-28T18:48:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T18:48:26+00:00</t>
+    <t>2022-03-28T20:08:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T20:08:43+00:00</t>
+    <t>2022-03-28T23:34:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:34:19+00:00</t>
+    <t>2022-03-28T23:45:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:45:02+00:00</t>
+    <t>2022-03-28T23:47:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:47:33+00:00</t>
+    <t>2022-03-29T00:49:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T00:49:23+00:00</t>
+    <t>2022-03-29T01:03:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T01:03:03+00:00</t>
+    <t>2022-03-29T01:33:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T01:33:50+00:00</t>
+    <t>2022-03-29T22:51:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T22:51:35+00:00</t>
+    <t>2022-03-30T04:10:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T04:10:02+00:00</t>
+    <t>2022-03-30T05:07:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T05:07:06+00:00</t>
+    <t>2022-03-30T05:24:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T05:24:10+00:00</t>
+    <t>2022-03-30T15:00:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T15:00:01+00:00</t>
+    <t>2022-03-30T20:32:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T20:32:02+00:00</t>
+    <t>2022-03-31T03:49:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T03:49:14+00:00</t>
+    <t>2022-03-31T04:31:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T04:31:26+00:00</t>
+    <t>2022-03-31T04:46:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T04:46:55+00:00</t>
+    <t>2022-03-31T06:22:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T06:22:16+00:00</t>
+    <t>2022-03-31T06:42:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T06:42:10+00:00</t>
+    <t>2022-04-26T17:07:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T17:07:52+00:00</t>
+    <t>2022-05-27T14:27:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-27T14:27:29+00:00</t>
+    <t>2022-06-01T13:01:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T13:01:08+00:00</t>
+    <t>2022-09-27T20:02:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -307,45 +307,49 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>DocumentReference.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>DocumentReference.meta.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>DocumentReference.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>DocumentReference.meta.id</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -396,10 +400,6 @@
   </si>
   <si>
     <t>DocumentReference.meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id
-</t>
   </si>
   <si>
     <t>Version specific identifier</t>
@@ -2157,48 +2157,48 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.6171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="53.62109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="73.23046875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="73.234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.99609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.0" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="44.06640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="44.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="52.00390625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="52.0078125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="84.22265625" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="162.4453125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="84.2265625" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="162.44921875" customWidth="true" bestFit="true"/>
     <col min="43" max="43" width="54.640625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -2725,13 +2725,13 @@
         <v>80</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -2782,7 +2782,7 @@
         <v>80</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>81</v>
@@ -2803,7 +2803,7 @@
         <v>80</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>80</v>
@@ -2823,11 +2823,11 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -2846,16 +2846,16 @@
         <v>80</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2893,19 +2893,19 @@
         <v>80</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AC6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>81</v>
@@ -2917,7 +2917,7 @@
         <v>80</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>80</v>
@@ -2926,7 +2926,7 @@
         <v>80</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>80</v>
@@ -2946,7 +2946,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -2969,7 +2969,7 @@
         <v>94</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>124</v>
@@ -4180,7 +4180,7 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -4199,16 +4199,16 @@
         <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>195</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -4270,7 +4270,7 @@
         <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>80</v>
@@ -4322,7 +4322,7 @@
         <v>80</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>198</v>
@@ -4391,7 +4391,7 @@
         <v>80</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>80</v>
@@ -5302,13 +5302,13 @@
         <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -5359,7 +5359,7 @@
         <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>81</v>
@@ -5380,7 +5380,7 @@
         <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>80</v>
@@ -5404,7 +5404,7 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -5423,16 +5423,16 @@
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5470,19 +5470,19 @@
         <v>80</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>81</v>
@@ -5494,7 +5494,7 @@
         <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>80</v>
@@ -5503,7 +5503,7 @@
         <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>80</v>
@@ -5546,7 +5546,7 @@
         <v>94</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>282</v>
@@ -5915,7 +5915,7 @@
         <v>94</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>301</v>
@@ -6653,13 +6653,13 @@
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6710,7 +6710,7 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>81</v>
@@ -6731,7 +6731,7 @@
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
@@ -6755,7 +6755,7 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6774,16 +6774,16 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6833,7 +6833,7 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>81</v>
@@ -6845,7 +6845,7 @@
         <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>80</v>
@@ -6854,7 +6854,7 @@
         <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>80</v>
@@ -6897,7 +6897,7 @@
         <v>94</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>355</v>
@@ -6906,7 +6906,7 @@
         <v>356</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N39" t="s" s="2">
         <v>357</v>
@@ -6970,7 +6970,7 @@
         <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>80</v>
@@ -7266,7 +7266,7 @@
         <v>94</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>378</v>
@@ -7637,13 +7637,13 @@
         <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7694,7 +7694,7 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>81</v>
@@ -7715,7 +7715,7 @@
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
@@ -7739,7 +7739,7 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7758,16 +7758,16 @@
         <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7817,7 +7817,7 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>81</v>
@@ -7829,7 +7829,7 @@
         <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>80</v>
@@ -7838,7 +7838,7 @@
         <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
@@ -7881,7 +7881,7 @@
         <v>94</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>355</v>
@@ -7890,7 +7890,7 @@
         <v>356</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>357</v>
@@ -7954,7 +7954,7 @@
         <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>80</v>
@@ -8127,13 +8127,13 @@
         <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -8184,7 +8184,7 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>81</v>
@@ -8205,7 +8205,7 @@
         <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>80</v>
@@ -8229,7 +8229,7 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -8248,16 +8248,16 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -8295,19 +8295,19 @@
         <v>80</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>81</v>
@@ -8319,7 +8319,7 @@
         <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>80</v>
@@ -8328,7 +8328,7 @@
         <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>80</v>
@@ -9117,7 +9117,7 @@
         <v>94</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>470</v>
@@ -9609,13 +9609,13 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9666,7 +9666,7 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>81</v>
@@ -9687,7 +9687,7 @@
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
@@ -9711,7 +9711,7 @@
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9730,16 +9730,16 @@
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9789,7 +9789,7 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>81</v>
@@ -9801,7 +9801,7 @@
         <v>80</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>80</v>
@@ -9810,7 +9810,7 @@
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
@@ -9853,7 +9853,7 @@
         <v>94</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>355</v>
@@ -9862,7 +9862,7 @@
         <v>356</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>357</v>
@@ -9926,7 +9926,7 @@
         <v>80</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>80</v>
@@ -10343,13 +10343,13 @@
         <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -10400,7 +10400,7 @@
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>81</v>
@@ -10421,7 +10421,7 @@
         <v>80</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>80</v>
@@ -10445,7 +10445,7 @@
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -10464,16 +10464,16 @@
         <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -10511,19 +10511,19 @@
         <v>80</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AC68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>81</v>
@@ -10535,7 +10535,7 @@
         <v>80</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>80</v>
@@ -10544,7 +10544,7 @@
         <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>80</v>
@@ -11202,13 +11202,13 @@
         <v>80</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -11259,7 +11259,7 @@
         <v>80</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>81</v>
@@ -11280,7 +11280,7 @@
         <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>80</v>
@@ -11304,7 +11304,7 @@
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -11323,16 +11323,16 @@
         <v>80</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -11370,19 +11370,19 @@
         <v>80</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AC75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>81</v>
@@ -11394,7 +11394,7 @@
         <v>80</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>80</v>
@@ -11403,7 +11403,7 @@
         <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>80</v>
@@ -11446,7 +11446,7 @@
         <v>94</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="K76" t="s" s="2">
         <v>282</v>
@@ -11815,7 +11815,7 @@
         <v>94</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="K79" t="s" s="2">
         <v>301</v>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:02:38+00:00</t>
+    <t>2022-09-27T20:20:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:20:50+00:00</t>
+    <t>2022-09-27T20:30:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:30:57+00:00</t>
+    <t>2022-09-27T22:49:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T22:49:39+00:00</t>
+    <t>2022-09-27T23:00:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T23:00:34+00:00</t>
+    <t>2022-09-27T23:08:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3154" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3154" uniqueCount="584">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T23:08:58+00:00</t>
+    <t>2022-10-27T10:56:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -277,10 +277,6 @@
   </si>
   <si>
     <t>Usually, this is used for documents other than those defined by FHIR.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -2429,36 +2425,36 @@
         <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AM2" t="s" s="2">
+      <c r="AN2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ2" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="AN2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ2" t="s" s="2">
-        <v>91</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2469,28 +2465,28 @@
         <v>81</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2540,13 +2536,13 @@
         <v>80</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>80</v>
@@ -2581,7 +2577,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2592,25 +2588,25 @@
         <v>81</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2661,19 +2657,19 @@
         <v>80</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>80</v>
@@ -2702,7 +2698,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2713,7 +2709,7 @@
         <v>81</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>80</v>
@@ -2725,13 +2721,13 @@
         <v>80</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -2782,28 +2778,28 @@
         <v>80</v>
       </c>
       <c r="AE5" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AF5" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL5" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AG5" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AH5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL5" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>80</v>
@@ -2823,11 +2819,11 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -2846,16 +2842,16 @@
         <v>80</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2893,19 +2889,19 @@
         <v>80</v>
       </c>
       <c r="AA6" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AB6" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="AB6" t="s" s="2">
+      <c r="AC6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD6" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="AC6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD6" t="s" s="2">
+      <c r="AE6" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>81</v>
@@ -2917,7 +2913,7 @@
         <v>80</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>80</v>
@@ -2926,7 +2922,7 @@
         <v>80</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>80</v>
@@ -2946,7 +2942,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -2957,28 +2953,28 @@
         <v>81</v>
       </c>
       <c r="F7" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I7" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I7" t="s" s="2">
+      <c r="J7" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="J7" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="K7" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -3028,19 +3024,19 @@
         <v>80</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>80</v>
@@ -3069,7 +3065,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -3080,28 +3076,28 @@
         <v>81</v>
       </c>
       <c r="F8" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I8" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="J8" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -3151,19 +3147,19 @@
         <v>80</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>80</v>
@@ -3192,7 +3188,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -3203,28 +3199,28 @@
         <v>81</v>
       </c>
       <c r="F9" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I9" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="J9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -3274,19 +3270,19 @@
         <v>80</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>80</v>
@@ -3315,7 +3311,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -3335,19 +3331,19 @@
         <v>80</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -3397,7 +3393,7 @@
         <v>80</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>81</v>
@@ -3409,7 +3405,7 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>80</v>
@@ -3433,12 +3429,12 @@
         <v>80</v>
       </c>
       <c r="AQ10" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3458,19 +3454,19 @@
         <v>80</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -3496,31 +3492,31 @@
         <v>80</v>
       </c>
       <c r="W11" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="X11" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="X11" t="s" s="2">
+      <c r="Y11" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE11" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>81</v>
@@ -3532,7 +3528,7 @@
         <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>80</v>
@@ -3561,7 +3557,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3581,19 +3577,19 @@
         <v>80</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -3619,31 +3615,31 @@
         <v>80</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="X12" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="X12" t="s" s="2">
+      <c r="Y12" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE12" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>81</v>
@@ -3655,7 +3651,7 @@
         <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>80</v>
@@ -3684,7 +3680,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3695,28 +3691,28 @@
         <v>81</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H13" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="I13" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3766,19 +3762,19 @@
         <v>80</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>80</v>
@@ -3807,7 +3803,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3818,7 +3814,7 @@
         <v>81</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>80</v>
@@ -3830,16 +3826,16 @@
         <v>80</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3865,43 +3861,43 @@
         <v>80</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>177</v>
-      </c>
       <c r="AF14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>80</v>
@@ -3930,18 +3926,18 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>80</v>
@@ -3953,16 +3949,16 @@
         <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -4012,28 +4008,28 @@
         <v>80</v>
       </c>
       <c r="AE15" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>80</v>
@@ -4053,11 +4049,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -4076,16 +4072,16 @@
         <v>80</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -4135,7 +4131,7 @@
         <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>81</v>
@@ -4156,7 +4152,7 @@
         <v>80</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>80</v>
@@ -4176,11 +4172,11 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -4199,16 +4195,16 @@
         <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="K17" t="s" s="2">
-        <v>115</v>
-      </c>
       <c r="L17" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -4258,7 +4254,7 @@
         <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>81</v>
@@ -4270,7 +4266,7 @@
         <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>80</v>
@@ -4279,7 +4275,7 @@
         <v>80</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>80</v>
@@ -4299,7 +4295,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4316,19 +4312,19 @@
         <v>80</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4379,7 +4375,7 @@
         <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>81</v>
@@ -4391,7 +4387,7 @@
         <v>80</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>80</v>
@@ -4420,7 +4416,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4428,34 +4424,34 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="F19" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="J19" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>80</v>
@@ -4504,48 +4500,48 @@
         <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AN19" t="s" s="2">
+      <c r="AO19" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AO19" t="s" s="2">
+      <c r="AP19" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AP19" t="s" s="2">
-        <v>213</v>
-      </c>
       <c r="AQ19" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4553,7 +4549,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>82</v>
@@ -4565,16 +4561,16 @@
         <v>80</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4625,7 +4621,7 @@
         <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>81</v>
@@ -4637,36 +4633,36 @@
         <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL20" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN20" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AO20" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AM20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AO20" t="s" s="2">
+      <c r="AP20" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AP20" t="s" s="2">
-        <v>219</v>
-      </c>
       <c r="AQ20" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4674,31 +4670,31 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H21" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="I21" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="J21" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4724,72 +4720,72 @@
         <v>80</v>
       </c>
       <c r="W21" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="X21" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="X21" t="s" s="2">
+      <c r="Y21" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="Y21" t="s" s="2">
+      <c r="Z21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="Z21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
+      <c r="AK21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AK21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AM21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN21" t="s" s="2">
+      <c r="AO21" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AO21" t="s" s="2">
+      <c r="AP21" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AP21" t="s" s="2">
-        <v>231</v>
-      </c>
       <c r="AQ21" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4809,19 +4805,19 @@
         <v>80</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4847,61 +4843,61 @@
         <v>80</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="X22" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="Y22" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="Y22" t="s" s="2">
+      <c r="Z22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="Z22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN22" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AO22" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>80</v>
@@ -4912,7 +4908,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4923,28 +4919,28 @@
         <v>81</v>
       </c>
       <c r="F23" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G23" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="H23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4970,104 +4966,104 @@
         <v>80</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X23" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="Y23" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="Y23" t="s" s="2">
+      <c r="Z23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="Z23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
+      <c r="AK23" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AK23" t="s" s="2">
+      <c r="AL23" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AN23" t="s" s="2">
+      <c r="AO23" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="AO23" t="s" s="2">
+      <c r="AP23" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AP23" t="s" s="2">
+      <c r="AQ23" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="AQ23" t="s" s="2">
-        <v>255</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G24" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="H24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -5093,14 +5089,14 @@
         <v>80</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="X24" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="Y24" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="Y24" t="s" s="2">
-        <v>262</v>
-      </c>
       <c r="Z24" t="s" s="2">
         <v>80</v>
       </c>
@@ -5117,7 +5113,7 @@
         <v>80</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>81</v>
@@ -5129,36 +5125,36 @@
         <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AO24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP24" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="AN24" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP24" t="s" s="2">
+      <c r="AQ24" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AQ24" t="s" s="2">
-        <v>267</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5166,28 +5162,28 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G25" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="H25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="J25" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -5238,48 +5234,48 @@
         <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AN25" t="s" s="2">
+      <c r="AO25" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AO25" t="s" s="2">
+      <c r="AP25" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AP25" t="s" s="2">
-        <v>278</v>
-      </c>
       <c r="AQ25" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5290,7 +5286,7 @@
         <v>81</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>80</v>
@@ -5302,13 +5298,13 @@
         <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -5359,28 +5355,28 @@
         <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>80</v>
@@ -5400,11 +5396,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -5423,16 +5419,16 @@
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5470,19 +5466,19 @@
         <v>80</v>
       </c>
       <c r="AA27" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AB27" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="AB27" t="s" s="2">
+      <c r="AC27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD27" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="AC27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD27" t="s" s="2">
+      <c r="AE27" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>81</v>
@@ -5494,7 +5490,7 @@
         <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>80</v>
@@ -5503,7 +5499,7 @@
         <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>80</v>
@@ -5523,7 +5519,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5531,31 +5527,31 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G28" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="H28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="J28" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5605,19 +5601,19 @@
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH28" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AF28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>286</v>
-      </c>
       <c r="AI28" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>80</v>
@@ -5626,7 +5622,7 @@
         <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>80</v>
@@ -5646,7 +5642,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5657,28 +5653,28 @@
         <v>81</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="J29" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5704,43 +5700,43 @@
         <v>80</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="Y29" t="s" s="2">
+      <c r="Z29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE29" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="Z29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>293</v>
-      </c>
       <c r="AF29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>80</v>
@@ -5749,7 +5745,7 @@
         <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>80</v>
@@ -5769,7 +5765,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5780,28 +5776,28 @@
         <v>81</v>
       </c>
       <c r="F30" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="J30" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5851,28 +5847,28 @@
         <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>80</v>
@@ -5892,7 +5888,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5903,28 +5899,28 @@
         <v>81</v>
       </c>
       <c r="F31" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="J31" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5974,19 +5970,19 @@
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>80</v>
@@ -5995,7 +5991,7 @@
         <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>80</v>
@@ -6015,39 +6011,39 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G32" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="H32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I32" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G32" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="J32" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -6097,34 +6093,34 @@
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>80</v>
@@ -6138,7 +6134,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6152,25 +6148,25 @@
         <v>82</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -6220,7 +6216,7 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>81</v>
@@ -6232,36 +6228,36 @@
         <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO33" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AN33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO33" t="s" s="2">
+      <c r="AP33" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AP33" t="s" s="2">
-        <v>324</v>
-      </c>
       <c r="AQ33" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6272,7 +6268,7 @@
         <v>81</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>80</v>
@@ -6284,16 +6280,16 @@
         <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -6343,48 +6339,48 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="AN34" t="s" s="2">
+      <c r="AO34" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="AO34" t="s" s="2">
+      <c r="AP34" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AP34" t="s" s="2">
-        <v>335</v>
-      </c>
       <c r="AQ34" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6407,16 +6403,16 @@
         <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6466,28 +6462,28 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
@@ -6507,7 +6503,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6521,25 +6517,25 @@
         <v>82</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6589,7 +6585,7 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>81</v>
@@ -6601,36 +6597,36 @@
         <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP36" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AM36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP36" t="s" s="2">
-        <v>350</v>
-      </c>
       <c r="AQ36" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6641,7 +6637,7 @@
         <v>81</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>80</v>
@@ -6653,13 +6649,13 @@
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6710,28 +6706,28 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
@@ -6751,11 +6747,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6774,16 +6770,16 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6833,7 +6829,7 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>81</v>
@@ -6845,7 +6841,7 @@
         <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>80</v>
@@ -6854,7 +6850,7 @@
         <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>80</v>
@@ -6874,11 +6870,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6891,25 +6887,25 @@
         <v>80</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N39" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>80</v>
@@ -6958,7 +6954,7 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>81</v>
@@ -6970,7 +6966,7 @@
         <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>80</v>
@@ -6979,7 +6975,7 @@
         <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
@@ -6999,7 +6995,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -7007,31 +7003,31 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="F40" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="J40" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -7057,72 +7053,72 @@
         <v>80</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="X40" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="Y40" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="Y40" t="s" s="2">
+      <c r="Z40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="Z40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK40" t="s" s="2">
+      <c r="AL40" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP40" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="AM40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP40" t="s" s="2">
+      <c r="AQ40" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="AQ40" t="s" s="2">
-        <v>368</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7130,28 +7126,28 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I41" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="F41" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="J41" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -7202,48 +7198,48 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP41" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="AM41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP41" t="s" s="2">
+      <c r="AQ41" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="AQ41" t="s" s="2">
-        <v>376</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7254,31 +7250,31 @@
         <v>81</v>
       </c>
       <c r="F42" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I42" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="J42" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>80</v>
@@ -7327,19 +7323,19 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>80</v>
@@ -7348,27 +7344,27 @@
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO42" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="AM42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO42" t="s" s="2">
+      <c r="AP42" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="AP42" t="s" s="2">
-        <v>384</v>
-      </c>
       <c r="AQ42" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7382,28 +7378,28 @@
         <v>82</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>80</v>
@@ -7428,14 +7424,14 @@
         <v>80</v>
       </c>
       <c r="W43" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="X43" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="X43" t="s" s="2">
+      <c r="Y43" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="Y43" t="s" s="2">
-        <v>154</v>
-      </c>
       <c r="Z43" t="s" s="2">
         <v>80</v>
       </c>
@@ -7452,7 +7448,7 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>81</v>
@@ -7464,36 +7460,36 @@
         <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO43" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="AN43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO43" t="s" s="2">
+      <c r="AP43" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="AP43" t="s" s="2">
-        <v>394</v>
-      </c>
       <c r="AQ43" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7501,28 +7497,28 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G44" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="H44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I44" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G44" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="J44" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7573,10 +7569,10 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>82</v>
@@ -7585,16 +7581,16 @@
         <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>80</v>
@@ -7614,7 +7610,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7625,7 +7621,7 @@
         <v>81</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>80</v>
@@ -7637,13 +7633,13 @@
         <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7694,28 +7690,28 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
@@ -7735,11 +7731,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7758,16 +7754,16 @@
         <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7817,7 +7813,7 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>81</v>
@@ -7829,7 +7825,7 @@
         <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>80</v>
@@ -7838,7 +7834,7 @@
         <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
@@ -7858,11 +7854,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7875,25 +7871,25 @@
         <v>80</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N47" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>80</v>
@@ -7942,7 +7938,7 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>81</v>
@@ -7954,7 +7950,7 @@
         <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>80</v>
@@ -7963,7 +7959,7 @@
         <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>80</v>
@@ -7983,7 +7979,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7991,28 +7987,28 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I48" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="F48" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="J48" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -8063,40 +8059,40 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="AL48" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO48" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="AN48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO48" t="s" s="2">
+      <c r="AP48" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="AP48" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="AQ48" t="s" s="2">
         <v>80</v>
@@ -8104,7 +8100,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -8115,7 +8111,7 @@
         <v>81</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>80</v>
@@ -8127,13 +8123,13 @@
         <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -8184,28 +8180,28 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>80</v>
@@ -8225,11 +8221,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -8248,16 +8244,16 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -8295,19 +8291,19 @@
         <v>80</v>
       </c>
       <c r="AA50" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AB50" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="AB50" t="s" s="2">
+      <c r="AC50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD50" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="AC50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD50" t="s" s="2">
+      <c r="AE50" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>81</v>
@@ -8319,7 +8315,7 @@
         <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>80</v>
@@ -8328,7 +8324,7 @@
         <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>80</v>
@@ -8348,7 +8344,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8356,32 +8352,32 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I51" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="F51" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="J51" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>80</v>
@@ -8394,84 +8390,84 @@
         <v>80</v>
       </c>
       <c r="S51" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="X51" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="T51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="X51" t="s" s="2">
+      <c r="Y51" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="Y51" t="s" s="2">
+      <c r="Z51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE51" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="Z51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE51" t="s" s="2">
+      <c r="AF51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="AF51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO51" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="AM51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO51" t="s" s="2">
+      <c r="AP51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ51" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="AP51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ51" t="s" s="2">
-        <v>423</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8482,29 +8478,29 @@
         <v>81</v>
       </c>
       <c r="F52" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G52" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G52" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>80</v>
@@ -8517,84 +8513,84 @@
         <v>80</v>
       </c>
       <c r="S52" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE52" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="T52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE52" t="s" s="2">
+      <c r="AF52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="AF52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ52" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ52" t="s" s="2">
-        <v>431</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8617,19 +8613,19 @@
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>80</v>
@@ -8678,37 +8674,37 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="AF53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AM53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO53" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>80</v>
@@ -8719,7 +8715,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8727,34 +8723,34 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G54" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="H54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I54" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G54" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="J54" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>80</v>
@@ -8767,84 +8763,84 @@
         <v>80</v>
       </c>
       <c r="S54" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE54" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="T54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE54" t="s" s="2">
+      <c r="AF54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="AF54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AM54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO54" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="AM54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO54" t="s" s="2">
+      <c r="AP54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ54" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="AP54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ54" t="s" s="2">
-        <v>451</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8855,31 +8851,31 @@
         <v>81</v>
       </c>
       <c r="F55" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I55" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="J55" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>80</v>
@@ -8928,48 +8924,48 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="AF55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL55" t="s" s="2">
+      <c r="AM55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ55" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ55" t="s" s="2">
-        <v>460</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8980,31 +8976,31 @@
         <v>81</v>
       </c>
       <c r="F56" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G56" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G56" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="H56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>80</v>
@@ -9053,48 +9049,48 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="AF56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL56" t="s" s="2">
+      <c r="AM56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ56" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ56" t="s" s="2">
-        <v>468</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -9105,29 +9101,29 @@
         <v>81</v>
       </c>
       <c r="F57" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I57" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="J57" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>80</v>
@@ -9140,84 +9136,84 @@
         <v>80</v>
       </c>
       <c r="S57" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE57" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="T57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE57" t="s" s="2">
+      <c r="AF57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="AF57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL57" t="s" s="2">
+      <c r="AM57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ57" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ57" t="s" s="2">
-        <v>476</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9228,29 +9224,29 @@
         <v>81</v>
       </c>
       <c r="F58" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G58" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G58" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="H58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>80</v>
@@ -9299,48 +9295,48 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ58" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ58" t="s" s="2">
-        <v>483</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9351,28 +9347,28 @@
         <v>81</v>
       </c>
       <c r="F59" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G59" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G59" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="H59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9398,72 +9394,72 @@
         <v>80</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X59" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="Y59" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="Y59" t="s" s="2">
+      <c r="Z59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK59" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="Z59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK59" t="s" s="2">
+      <c r="AL59" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="AL59" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="AM59" t="s" s="2">
+      <c r="AN59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP59" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="AN59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP59" t="s" s="2">
-        <v>492</v>
-      </c>
       <c r="AQ59" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9474,28 +9470,28 @@
         <v>81</v>
       </c>
       <c r="F60" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I60" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="J60" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -9545,19 +9541,19 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>80</v>
@@ -9566,7 +9562,7 @@
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
@@ -9586,7 +9582,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9597,7 +9593,7 @@
         <v>81</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>80</v>
@@ -9609,13 +9605,13 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9666,28 +9662,28 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
@@ -9707,11 +9703,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9730,16 +9726,16 @@
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9789,7 +9785,7 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>81</v>
@@ -9801,7 +9797,7 @@
         <v>80</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>80</v>
@@ -9810,7 +9806,7 @@
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
@@ -9830,11 +9826,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9847,25 +9843,25 @@
         <v>80</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N63" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>80</v>
@@ -9914,7 +9910,7 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>81</v>
@@ -9926,7 +9922,7 @@
         <v>80</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>80</v>
@@ -9935,7 +9931,7 @@
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
@@ -9955,7 +9951,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9978,13 +9974,13 @@
         <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -10035,7 +10031,7 @@
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>81</v>
@@ -10047,22 +10043,22 @@
         <v>80</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AJ64" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AK64" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="AK64" t="s" s="2">
+      <c r="AL64" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="AL64" t="s" s="2">
+      <c r="AM64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>508</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>80</v>
@@ -10076,7 +10072,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -10099,16 +10095,16 @@
         <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -10134,14 +10130,14 @@
         <v>80</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="X65" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="Y65" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="Y65" t="s" s="2">
-        <v>514</v>
-      </c>
       <c r="Z65" t="s" s="2">
         <v>80</v>
       </c>
@@ -10158,7 +10154,7 @@
         <v>80</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>81</v>
@@ -10170,36 +10166,36 @@
         <v>80</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AL65" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="AL65" t="s" s="2">
+      <c r="AM65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP65" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="AM65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP65" t="s" s="2">
-        <v>517</v>
-      </c>
       <c r="AQ65" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -10210,25 +10206,25 @@
         <v>81</v>
       </c>
       <c r="F66" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G66" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G66" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="H66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="K66" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="K66" t="s" s="2">
+      <c r="L66" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -10279,40 +10275,40 @@
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="AL66" t="s" s="2">
+      <c r="AM66" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="AM66" t="s" s="2">
+      <c r="AN66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP66" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP66" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="AQ66" t="s" s="2">
         <v>80</v>
@@ -10320,7 +10316,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10331,7 +10327,7 @@
         <v>81</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>80</v>
@@ -10343,13 +10339,13 @@
         <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="K67" t="s" s="2">
+      <c r="L67" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -10400,28 +10396,28 @@
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL67" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>80</v>
@@ -10441,11 +10437,11 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -10464,16 +10460,16 @@
         <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="K68" t="s" s="2">
+      <c r="L68" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -10511,19 +10507,19 @@
         <v>80</v>
       </c>
       <c r="AA68" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AB68" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="AB68" t="s" s="2">
+      <c r="AC68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD68" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="AC68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD68" t="s" s="2">
+      <c r="AE68" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>81</v>
@@ -10535,7 +10531,7 @@
         <v>80</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>80</v>
@@ -10544,7 +10540,7 @@
         <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>80</v>
@@ -10564,7 +10560,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10575,28 +10571,28 @@
         <v>81</v>
       </c>
       <c r="F69" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I69" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="J69" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>531</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10646,48 +10642,48 @@
         <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH69" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="AF69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AH69" t="s" s="2">
+      <c r="AI69" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL69" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="AI69" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL69" t="s" s="2">
+      <c r="AM69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO69" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="AM69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO69" t="s" s="2">
+      <c r="AP69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ69" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="AP69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ69" t="s" s="2">
-        <v>536</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10698,121 +10694,121 @@
         <v>81</v>
       </c>
       <c r="F70" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I70" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="J70" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>540</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P70" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="Q70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE70" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="Q70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE70" t="s" s="2">
+      <c r="AF70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL70" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="AF70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL70" t="s" s="2">
+      <c r="AM70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO70" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="AM70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO70" t="s" s="2">
+      <c r="AP70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ70" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="AP70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ70" t="s" s="2">
-        <v>545</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10823,11 +10819,11 @@
         <v>81</v>
       </c>
       <c r="F71" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G71" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G71" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="H71" t="s" s="2">
         <v>80</v>
       </c>
@@ -10835,13 +10831,13 @@
         <v>80</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10868,72 +10864,72 @@
         <v>80</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="X71" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="Y71" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="Y71" t="s" s="2">
+      <c r="Z71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK71" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="Z71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK71" t="s" s="2">
+      <c r="AL71" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="AL71" t="s" s="2">
+      <c r="AM71" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="AM71" t="s" s="2">
+      <c r="AN71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP71" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="AN71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP71" t="s" s="2">
-        <v>554</v>
-      </c>
       <c r="AQ71" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10944,11 +10940,11 @@
         <v>81</v>
       </c>
       <c r="F72" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G72" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G72" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="H72" t="s" s="2">
         <v>80</v>
       </c>
@@ -10956,19 +10952,19 @@
         <v>80</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>559</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>80</v>
@@ -10993,72 +10989,72 @@
         <v>80</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="X72" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="Y72" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="Y72" t="s" s="2">
+      <c r="Z72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP72" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="Z72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP72" t="s" s="2">
-        <v>562</v>
-      </c>
       <c r="AQ72" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -11069,11 +11065,11 @@
         <v>81</v>
       </c>
       <c r="F73" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G73" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G73" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="H73" t="s" s="2">
         <v>80</v>
       </c>
@@ -11081,13 +11077,13 @@
         <v>80</v>
       </c>
       <c r="J73" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="K73" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="K73" t="s" s="2">
+      <c r="L73" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>566</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -11138,32 +11134,32 @@
         <v>80</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK73" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="AL73" t="s" s="2">
+      <c r="AM73" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="AM73" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="AN73" t="s" s="2">
         <v>80</v>
       </c>
@@ -11171,7 +11167,7 @@
         <v>80</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AQ73" t="s" s="2">
         <v>80</v>
@@ -11179,7 +11175,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -11190,7 +11186,7 @@
         <v>81</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>80</v>
@@ -11202,13 +11198,13 @@
         <v>80</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="K74" t="s" s="2">
+      <c r="L74" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -11259,28 +11255,28 @@
         <v>80</v>
       </c>
       <c r="AE74" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL74" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>80</v>
@@ -11300,11 +11296,11 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -11323,16 +11319,16 @@
         <v>80</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="K75" t="s" s="2">
+      <c r="L75" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -11370,19 +11366,19 @@
         <v>80</v>
       </c>
       <c r="AA75" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AB75" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="AB75" t="s" s="2">
+      <c r="AC75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD75" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="AC75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD75" t="s" s="2">
+      <c r="AE75" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>81</v>
@@ -11394,7 +11390,7 @@
         <v>80</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>80</v>
@@ -11403,7 +11399,7 @@
         <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>80</v>
@@ -11423,7 +11419,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11434,28 +11430,28 @@
         <v>81</v>
       </c>
       <c r="F76" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I76" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="J76" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -11505,19 +11501,19 @@
         <v>80</v>
       </c>
       <c r="AE76" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH76" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AF76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>286</v>
-      </c>
       <c r="AI76" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>80</v>
@@ -11526,7 +11522,7 @@
         <v>80</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>80</v>
@@ -11541,12 +11537,12 @@
         <v>80</v>
       </c>
       <c r="AQ76" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11557,28 +11553,28 @@
         <v>81</v>
       </c>
       <c r="F77" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I77" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="J77" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11604,43 +11600,43 @@
         <v>80</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X77" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="Y77" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="Y77" t="s" s="2">
+      <c r="Z77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE77" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="Z77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>293</v>
-      </c>
       <c r="AF77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>80</v>
@@ -11649,7 +11645,7 @@
         <v>80</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>80</v>
@@ -11669,7 +11665,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11680,28 +11676,28 @@
         <v>81</v>
       </c>
       <c r="F78" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I78" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="J78" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -11751,29 +11747,29 @@
         <v>80</v>
       </c>
       <c r="AE78" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL78" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AF78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>299</v>
-      </c>
       <c r="AM78" t="s" s="2">
         <v>80</v>
       </c>
@@ -11787,12 +11783,12 @@
         <v>80</v>
       </c>
       <c r="AQ78" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11803,28 +11799,28 @@
         <v>81</v>
       </c>
       <c r="F79" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I79" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="J79" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -11874,19 +11870,19 @@
         <v>80</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>80</v>
@@ -11895,7 +11891,7 @@
         <v>80</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>80</v>
@@ -11915,7 +11911,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11938,16 +11934,16 @@
         <v>80</v>
       </c>
       <c r="J80" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="K80" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="K80" t="s" s="2">
+      <c r="L80" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>579</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>580</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -11997,7 +11993,7 @@
         <v>80</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>81</v>
@@ -12009,31 +12005,31 @@
         <v>80</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK80" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="AL80" t="s" s="2">
         <v>581</v>
       </c>
-      <c r="AL80" t="s" s="2">
+      <c r="AM80" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="AM80" t="s" s="2">
+      <c r="AN80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP80" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="AN80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP80" t="s" s="2">
-        <v>584</v>
-      </c>
       <c r="AQ80" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
   </sheetData>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T10:56:05+00:00</t>
+    <t>2022-11-23T04:23:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T04:23:36+00:00</t>
+    <t>2022-11-23T11:18:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T11:18:03+00:00</t>
+    <t>2022-11-23T11:20:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T11:20:15+00:00</t>
+    <t>2022-11-23T15:17:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T15:17:18+00:00</t>
+    <t>2022-11-28T15:39:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T15:39:12+00:00</t>
+    <t>2022-11-28T23:56:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T23:56:31+00:00</t>
+    <t>2022-11-29T11:57:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T11:57:57+00:00</t>
+    <t>2022-11-30T13:59:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T13:59:42+00:00</t>
+    <t>2022-11-30T15:11:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T15:11:20+00:00</t>
+    <t>2022-11-30T15:45:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-08T23:46:44+00:00</t>
+    <t>2023-01-09T00:16:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T14:19:24+00:00</t>
+    <t>2023-01-11T17:29:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
